--- a/FRAME#1_Chia Wen+Mingqian.xlsx
+++ b/FRAME#1_Chia Wen+Mingqian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\0. study abroad\academic\11. 2024 Winter\1. SurvMeth 745 Practical Tools for Study Design and Inference\2. Assignments\Project (Apr 1)\SurvMeth-745\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7293CC00-DA7A-4D11-8CFF-9722DD9A032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC1B88F-4DA8-45A1-9034-830220A86E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1037,6 +1037,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -6984,6 +6987,8 @@
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>